--- a/doc/home.xlsx
+++ b/doc/home.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F226E-6C9B-4D6F-9085-8372769A9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BBDE4-21FF-4FED-BD7A-78A89DFE5A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="links" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="786">
   <si>
     <t>发布相关</t>
   </si>
@@ -172,10 +172,6 @@
   </si>
   <si>
     <t>PROD</t>
-  </si>
-  <si>
-    <t>Change ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SAM 2.86</t>
@@ -699,9 +695,6 @@
     <t xml:space="preserve">06/10 CHN Time </t>
   </si>
   <si>
-    <t xml:space="preserve">06/20 DAL Time </t>
-  </si>
-  <si>
     <t>CHG0061609 - SAM China Release 2.89-UAT</t>
   </si>
   <si>
@@ -714,9 +707,6 @@
     <t>06/21 CHN Time</t>
   </si>
   <si>
-    <t>06/22 CHN Time</t>
-  </si>
-  <si>
     <t>06/30  DAL Time</t>
   </si>
   <si>
@@ -937,13 +927,2572 @@
   </si>
   <si>
     <t>splnuk:eventtype="pcf_app" "MKOS.EmpApp.qa" "access_token"</t>
+  </si>
+  <si>
+    <t>Change ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.54</t>
+  </si>
+  <si>
+    <t>7/5 CHN Time</t>
+  </si>
+  <si>
+    <t>7/12 CHN Time</t>
+  </si>
+  <si>
+    <t>7/18 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0041677-SAM China Release 2.54-UAT</t>
+  </si>
+  <si>
+    <t>CHG0041678-SAM China Release 2.54 - CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.54.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/19 CHN Time </t>
+  </si>
+  <si>
+    <t>7/20 CHN Time</t>
+  </si>
+  <si>
+    <t>7/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0041737-SAM China Month-End Release 2.54.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0041738-SAM China Month-End Release 2.54.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.54</t>
+  </si>
+  <si>
+    <t>7/18 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0041746-FO China Local Release 2.54-UAT</t>
+  </si>
+  <si>
+    <t>CHG0041747-FO China Local Release 2.54-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.54.5</t>
+  </si>
+  <si>
+    <t>7/23 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0041748-FO China Local Release 2.54.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0041749-FO China Local Release 2.54.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.55</t>
+  </si>
+  <si>
+    <t>8/6 CHN Time</t>
+  </si>
+  <si>
+    <t>8/13 CHN Time</t>
+  </si>
+  <si>
+    <t>8/20 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0042262-SAM China Release 2.55-UAT</t>
+  </si>
+  <si>
+    <t>CHG0042351-SAM China Release 2.55-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.55.5</t>
+  </si>
+  <si>
+    <t>8/17 CHN Time</t>
+  </si>
+  <si>
+    <t>8/21 CHN Time</t>
+  </si>
+  <si>
+    <t>8/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0042360-SAM China Month-End Release 2.55.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0042362-SAM China Month-End Release 2.55.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.55</t>
+  </si>
+  <si>
+    <t>8/20 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0042385-FO China Local Release 2.55-UAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHG0042386 -FO China Local Release 2.55-PROD </t>
+  </si>
+  <si>
+    <t>FO Local Release 2.55.5</t>
+  </si>
+  <si>
+    <t>CHG0042392-FO China Local Release 2.55.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0042397-FO China Local Release 2.55.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.56</t>
+  </si>
+  <si>
+    <t>9/7 CHN Time</t>
+  </si>
+  <si>
+    <t>9/13 CHN Time</t>
+  </si>
+  <si>
+    <t>9/19 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0043052-SAM China Release 2.56-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043054-SAM China Release 2.56-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.56.5</t>
+  </si>
+  <si>
+    <t>9/20 CHN Time</t>
+  </si>
+  <si>
+    <t>9/21 CHN Time</t>
+  </si>
+  <si>
+    <t>9/30 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0043057-SAM China Month-End Release 2.56.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043059-SAM China Month-End Release 2.56.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.56</t>
+  </si>
+  <si>
+    <t>9/19 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0043064-FO China Local Release 2.56-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043066-FO China Local Release 2.56-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.56.5</t>
+  </si>
+  <si>
+    <t>CHG0043055 - FO China Local Release 2.56.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043058 - FO China Local Release 2.56.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.57</t>
+  </si>
+  <si>
+    <t>10/4 CHN Time</t>
+  </si>
+  <si>
+    <t>10/10 CHN Time</t>
+  </si>
+  <si>
+    <t>10/16 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0043738 - SAM China Release 2.57-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043816 - SAM China Release 2.57-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.57.5</t>
+  </si>
+  <si>
+    <t>10/17 CHN Time</t>
+  </si>
+  <si>
+    <t>10/18 CHN Time</t>
+  </si>
+  <si>
+    <t>10/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0043777 - SAM China Month-End Release 2.57.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043778 - SAM China Month-End Release 2.57.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.57</t>
+  </si>
+  <si>
+    <t>10/11 CHN Time</t>
+  </si>
+  <si>
+    <t>10/22 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0043733 - FO China Local Release 2.57-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043736 - FO China Local Release 2.57-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.57.5</t>
+  </si>
+  <si>
+    <t>10/23 CHN Time</t>
+  </si>
+  <si>
+    <t>10/24 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0043737 - FO China Local Release 2.57.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0043739 - FO China Local Release 2.57.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.58</t>
+  </si>
+  <si>
+    <t>11/9 CHN Time</t>
+  </si>
+  <si>
+    <t>11/14 CHN Time</t>
+  </si>
+  <si>
+    <t>11/16 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0044699 - SAM China Release 2.58-UAT</t>
+  </si>
+  <si>
+    <t>CHG0044700 - SAM China Release 2.58-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.58.5</t>
+  </si>
+  <si>
+    <t>11/20 CHN Time</t>
+  </si>
+  <si>
+    <t>11/22 CHN Time</t>
+  </si>
+  <si>
+    <t>11/30 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0044701 - SAM China Month-End Release 2.58.5-UAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHG0044702 - SAM China Month-End Release 2.58.5-PROD </t>
+  </si>
+  <si>
+    <t>FO Local Release 2.58</t>
+  </si>
+  <si>
+    <t>11/7 CHN Time</t>
+  </si>
+  <si>
+    <t>11/19 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0044692 - FO China Local Release 2.58-UAT</t>
+  </si>
+  <si>
+    <t>CHG0044693- FO China Local Release 2.58-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.58.5</t>
+  </si>
+  <si>
+    <t>CHG0044695 - FO China Local Release 2.58.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0044696- FO China Local Release 2.58.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.59</t>
+  </si>
+  <si>
+    <t>12/5 CHN Time</t>
+  </si>
+  <si>
+    <t>12/12 CHN Time</t>
+  </si>
+  <si>
+    <t>12/18 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0045289 - SAM China Release 2.59-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045290 - SAM China Release 2.59-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.59.5</t>
+  </si>
+  <si>
+    <t>12/19 CHN Time</t>
+  </si>
+  <si>
+    <t>12/24 CHN Time</t>
+  </si>
+  <si>
+    <t>12/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0045292 - SAM China Month-End Release 2.59.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045294 - SAM China Month-End Release 2.59.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.59</t>
+  </si>
+  <si>
+    <t>CHG0045291 - FO China Local Release 2.59-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045295- FO China Local Release 2.59-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.59.5</t>
+  </si>
+  <si>
+    <t>CHG0045296 - FO China Local Release 2.59.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045297- FO China Local Release 2.59.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.60</t>
+  </si>
+  <si>
+    <t>1/4/2019 CHN Time</t>
+  </si>
+  <si>
+    <t>1/11 CHN Time</t>
+  </si>
+  <si>
+    <t>1/17 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0045463 - SAM China Release 2.60-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045464 - SAM China Release 2.60-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.60.5</t>
+  </si>
+  <si>
+    <t>1/18 CHN Time</t>
+  </si>
+  <si>
+    <t>1/22 CHN Time</t>
+  </si>
+  <si>
+    <t>11/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0045466 - SAM China Month-End Release 2.60.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045467 - SAM China Month-End Release 2.60.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.60</t>
+  </si>
+  <si>
+    <t>1/17 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0045518 - FO China Local Release 2.60-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045519 - FO China Local Release 2.60-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.60.5</t>
+  </si>
+  <si>
+    <t>CHG0045520 - FO China Local Release 2.60.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0045521 - FO China Local Release 2.60.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.61</t>
+  </si>
+  <si>
+    <t>2/11/2019 CHN Time</t>
+  </si>
+  <si>
+    <t>2/15 CHN Time</t>
+  </si>
+  <si>
+    <t>2/21 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0046106 - SAM China Release 2.61-UAT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0046107 - SAM China Release 2.61-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.61.5</t>
+  </si>
+  <si>
+    <t>2/22 CHN Time</t>
+  </si>
+  <si>
+    <t>2/25 CHN Time</t>
+  </si>
+  <si>
+    <t>2/28 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0046109 - SAM China Month-End Release 2.61.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046110 - SAM China Month-End Release 2.61.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.61</t>
+  </si>
+  <si>
+    <t>2/21 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0046105 - FO China Local Release 2.61-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046111 - FO China Local Release 2.61-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.61.5</t>
+  </si>
+  <si>
+    <t>CHG0046112 - FO China Local Release 2.61.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046113 - FO China Local Release 2.61.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.62</t>
+  </si>
+  <si>
+    <t>3/5 CHN Time</t>
+  </si>
+  <si>
+    <t>3/12 CHN Time</t>
+  </si>
+  <si>
+    <t>3/19 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0046881 - SAM China Release 2.62-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046882 - SAM China Release 2.62-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.62.5</t>
+  </si>
+  <si>
+    <t>3/20 CHN Time</t>
+  </si>
+  <si>
+    <t>3/25 CHN TIME</t>
+  </si>
+  <si>
+    <t>3/31 CHN TIME</t>
+  </si>
+  <si>
+    <t>CHG0046883 - SAM China Month-End Release 2.62.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046884 - SAM China Month-End Release 2.62.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.62</t>
+  </si>
+  <si>
+    <t>3/19 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0046885 - FO China Local Release 2.62-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046886 - FO China Local Release 2.62-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.62.5</t>
+  </si>
+  <si>
+    <t>CHG0046887 - FO China Local Release 2.62.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0046888 - FO China Local Release 2.62.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.63</t>
+  </si>
+  <si>
+    <t>4/3 CHN Time</t>
+  </si>
+  <si>
+    <t>4/11 CHN Time</t>
+  </si>
+  <si>
+    <t>4/16 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0047225 - SAM China Release 2.63-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0047226 - SAM China Release 2.63-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.63.5</t>
+  </si>
+  <si>
+    <t>4/17 CHN Time</t>
+  </si>
+  <si>
+    <t>4/22 CHN Time</t>
+  </si>
+  <si>
+    <t>4/30 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0047227 - SAM China Month-End Release 2.63.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0047228 - SAM China Month-End Release 2.63.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.63</t>
+  </si>
+  <si>
+    <t>4/16 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0047220 - FO China Local Release 2.63-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0047221 - FO China Local Release 2.63-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.63.5</t>
+  </si>
+  <si>
+    <t>CHG0047222 - FO China Local Release 2.63.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0047223 - FO China Local Release 2.63.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.64</t>
+  </si>
+  <si>
+    <t>5/6 CHN Time</t>
+  </si>
+  <si>
+    <t>5/13 CHN Time</t>
+  </si>
+  <si>
+    <t>5/21 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0047765-SAM China Release 2.64-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>CHG0047766-SAM China Release 2.64-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.64.5</t>
+  </si>
+  <si>
+    <t>5/22 CHN Time</t>
+  </si>
+  <si>
+    <t>5/27 CHN Time</t>
+  </si>
+  <si>
+    <t>5/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0047767-SAM China Month-End Release 2.64.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0047768-SAM China Month-End Release 2.64.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.64</t>
+  </si>
+  <si>
+    <t>5/21 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0047761 - FO China Local Release 2.64-UAT</t>
+  </si>
+  <si>
+    <t>CHG0047762 - FO China Local Release 2.64-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.64.5</t>
+  </si>
+  <si>
+    <t>CHG0047763 - FO China Local Release 2.64.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0047764 - FO China Local Release 2.64.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/05 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/11 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/18 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0048655 - SAM China Release 2.65-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0048656 - SAM China Release 2.65-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.65.5</t>
+  </si>
+  <si>
+    <t>06/19 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/24 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/30 CHN  Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0048658 - SAM China Month-End Release 2.65.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0048659 - SAM China Month-End Release 2.65.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.65</t>
+  </si>
+  <si>
+    <t>06/04 CHN Time</t>
+  </si>
+  <si>
+    <t>06/11 CHN Time</t>
+  </si>
+  <si>
+    <t>06/18 CHN  Time</t>
+  </si>
+  <si>
+    <t>CHG0048651 - FO China Local Release 2.65-UAT</t>
+  </si>
+  <si>
+    <t>CHG0048652 - FO China Local Release 2.65-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.65.5</t>
+  </si>
+  <si>
+    <t>06/19 CHN Time</t>
+  </si>
+  <si>
+    <t>06/24 CHN Time</t>
+  </si>
+  <si>
+    <t>06/30 CHN  Time</t>
+  </si>
+  <si>
+    <t>CHG0048653 - FO China Local Release 2.65.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0048654 - FO China Local Release 2.65.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/03 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/10 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/17 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049008 - SAM China Release 2.66-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049009 - SAM China Release 2.66-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.66.5</t>
+  </si>
+  <si>
+    <t>07/18 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/23 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/31 CHN  Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049011 - SAM China Month-End Release 2.66.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049013 - SAM China Month-End Release 2.66.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.66</t>
+  </si>
+  <si>
+    <t>07/03 CHN Time</t>
+  </si>
+  <si>
+    <t>07/10 CHN Time</t>
+  </si>
+  <si>
+    <t>07/17 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049004 - FO China Local Release 2.66-UAT</t>
+  </si>
+  <si>
+    <t>CHG0049005 - FO China Local Release 2.66-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.66.5</t>
+  </si>
+  <si>
+    <t>07/18 CHN Time</t>
+  </si>
+  <si>
+    <t>07/23 CHN Time</t>
+  </si>
+  <si>
+    <t>07/31 CHN  Time</t>
+  </si>
+  <si>
+    <t>CHG0049006 - FO China Local Release 2.66.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0049007 - FO China Local Release 2.66.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.67</t>
+  </si>
+  <si>
+    <t>08/06 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08/13 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08/20 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049766 - SAM China Release 2.67-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049767 - SAM China Release 2.67-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.67.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/21 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08/26 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08/31 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049768 - SAM China Month-End Release 2.67.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049769 - SAM China Month-End Release 2.67.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.67</t>
+  </si>
+  <si>
+    <t>08/20 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0049760 - FO China Local Release 2.67-UAT</t>
+  </si>
+  <si>
+    <t>CHG0049761 - FO China Local Release 2.67-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.67.5</t>
+  </si>
+  <si>
+    <t>CHG0049763 - FO China Local Release 2.67.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0049764 - FO China Local Release 2.67.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/05 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/12 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/19 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0050045 - SAM China Release 2.68-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0050046 - SAM China Release 2.68-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.68.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09/20 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/24 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/30 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0050047 - SAM China Month-End Release 2.68.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0050049 - SAM China Month-End Release 2.68.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/05 CHN Time</t>
+  </si>
+  <si>
+    <t>09/12 CHN Time</t>
+  </si>
+  <si>
+    <t>09/19 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0050057 - FO China Local Release 2.68-UAT</t>
+  </si>
+  <si>
+    <t>CHG0050058 - FO China Local Release 2.68-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.68.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09/20 CHN Time </t>
+  </si>
+  <si>
+    <t>09/30 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0050059 - FO China Local Release 2.68.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0050060 - FO China Local Release 2.68.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.69</t>
+  </si>
+  <si>
+    <t>10/04 CHN Time</t>
+  </si>
+  <si>
+    <t>10/17 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0050879 - SAM China Release 2.69-UAT</t>
+  </si>
+  <si>
+    <t>CHG0050880 - SAM China Release 2.69-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.69.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/18 CHN Time </t>
+  </si>
+  <si>
+    <t>CHG0050881 - SAM China Month-End Release 2.69.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0050882 - SAM China Month-End Release 2.69.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.69</t>
+  </si>
+  <si>
+    <t>CHG0050874 - FO China Local Release 2.69-UAT</t>
+  </si>
+  <si>
+    <t>CHG0050875 - FO China Local Release 2.69-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.69.5</t>
+  </si>
+  <si>
+    <t>CHG0050876 - FO China Local Release 2.69.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0050877 - FO China Local Release 2.69.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/05 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/12 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/19 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051307 - SAM China Release 2.70-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051308 - SAM China Release 2.70-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.70.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11/20 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11/25 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11/30 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051309 - SAM China Month-End Release 2.70.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051310 - SAM China Month-End Release 2.70.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/19 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051311 - FO China Local Release 2.70-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051312 - FO China Local Release 2.70-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.70.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051313 - FO China Local Release 2.70.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051314 - FO China Local Release 2.70.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.71</t>
+  </si>
+  <si>
+    <t>12/05 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/12 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/18 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051770 - SAM China Release 2.71-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051771 - SAM China Release 2.71-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.71.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/19 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12/24 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12/31 CHN Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051772 - SAM China Month-End Release 2.71.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051773 - SAM China Month-End Release 2.71.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.71</t>
+  </si>
+  <si>
+    <t>12/18 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051774 - FO China Local Release 2.71-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0051775 - FO China Local Release 2.71-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.71.5</t>
+  </si>
+  <si>
+    <t>CHG0051777 - FO China Local Release 2.71.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.72</t>
+  </si>
+  <si>
+    <t>01/07 CHN Time</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SAM 2.72.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/20 CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/22 CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/31 CHN Time </t>
+  </si>
+  <si>
+    <t>CHG0052405 - SAM China Month-End Release 2.72.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CHG0052406 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAM China Month-End Release 2.72.5-PROD</t>
+    </r>
+  </si>
+  <si>
+    <t>FO Local Release 2.72</t>
+  </si>
+  <si>
+    <t>01/14 CHN Time</t>
+  </si>
+  <si>
+    <t>01/20 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0052401 - FO China Local Release 2.72-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0052402 - FO China Local Release 2.72-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.72.5</t>
+  </si>
+  <si>
+    <t>CHG0052403 - FO China Local Release 2.72.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0052404 - FO China Local Release 2.72.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.73</t>
+  </si>
+  <si>
+    <t>02/05 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/12 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/19 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053017 - SAM China Release 2.73-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053018 - SAM China Release 2.73-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.73.5</t>
+  </si>
+  <si>
+    <t>02/20 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/25 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/29 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053019 - SAM China Month-End Release 2.73.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053020 - SAM China Month-End Release 2.73.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.73</t>
+  </si>
+  <si>
+    <t>02/19 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053022 - FO China Local Release 2.73-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053023 - FO China Local Release 2.73-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.73.5</t>
+  </si>
+  <si>
+    <t>CHG0053024 - FO China Local Release 2.73.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053025 - FO China Local Release 2.73.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.74</t>
+  </si>
+  <si>
+    <t>03/05 CHN Time</t>
+  </si>
+  <si>
+    <t>03/12 CHN Time</t>
+  </si>
+  <si>
+    <t>03/18 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053361 - SAM China Release 2.74-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053362 - SAM China Release 2.74-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.74.5</t>
+  </si>
+  <si>
+    <t>03/19 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/24 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/31 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053365 - FO China Local Release 2.74-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053366 - FO China Local Release 2.74-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.74</t>
+  </si>
+  <si>
+    <t>03/18 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053363 - SAM China Month-End Release 2.74.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053364 - SAM China Month-End Release 2.74.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.74.5</t>
+  </si>
+  <si>
+    <t>CHG0053367 - FO China Local Release 2.74.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053368 - FO China Local Release 2.74.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.75</t>
+  </si>
+  <si>
+    <t>04/03 CHN Time</t>
+  </si>
+  <si>
+    <t>04/10 CHN Time</t>
+  </si>
+  <si>
+    <t>04/20 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053732 - SAM China Release 2.75-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053734 - SAM China Release 2.75-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.75.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/21 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/24 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/30 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053736 - SAM China Month-End Release 2.75.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053737 - SAM China Month-End Release 2.75.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.75</t>
+  </si>
+  <si>
+    <t>04/20 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053738 - FO China Local Release 2.75-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053739 - FO China Local Release 2.75-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.75.5</t>
+  </si>
+  <si>
+    <t>CHG0053740 - FO China Local Release 2.75.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0053741 - FO China Local Release 2.75.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.76</t>
+  </si>
+  <si>
+    <t>05/05 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/12 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/20 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0054252 - SAM China Release 2.76-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0054253 - SAM China Release 2.76-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.76.5</t>
+  </si>
+  <si>
+    <t>05/21 CHN Time</t>
+  </si>
+  <si>
+    <t>05/25 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/31 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0054254 - SAM China Month-End Release 2.76.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0054231 - SAM China Month-End Release 2.76.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.76</t>
+  </si>
+  <si>
+    <t>05/20 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0054255 - FO China Local Release 2.76-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0054256 - FO China Local Release 2.76-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.76.5</t>
+  </si>
+  <si>
+    <t>CHG0054257 - FO China Local Release 2.76.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0054258 - FO China Local Release 2.76.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.77</t>
+  </si>
+  <si>
+    <t>06/03 CHN Time</t>
+  </si>
+  <si>
+    <t>06/10 CHN Time</t>
+  </si>
+  <si>
+    <t>06/18 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0054969 - SAM China Release 2.77-UAT</t>
+  </si>
+  <si>
+    <t>CHG0054970 - SAM China Release 2.77-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.77.5</t>
+  </si>
+  <si>
+    <t>06/23 CHN Time</t>
+  </si>
+  <si>
+    <t>06/30 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0054971 - SAM China Month-End Release 2.77.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0054972 - SAM China Month-End Release 2.77.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.77</t>
+  </si>
+  <si>
+    <t>06/18 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0054973 - FO China Local Release 2.77-UAT</t>
+  </si>
+  <si>
+    <t>CHG0054974 - FO China Local Release 2.77-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.77.5</t>
+  </si>
+  <si>
+    <t>CHG0054976 - FO China Local Release 2.77.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0054977 - FO China Local Release 2.77.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.78</t>
+  </si>
+  <si>
+    <t>07/16 DAL Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0055412 - SAM China Release 2.78-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0055413 - SAM China Release 2.78-CN PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.78.5</t>
+  </si>
+  <si>
+    <t>07/21 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/31 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0055414 - SAM China Month-End Release 2.78.5-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0055415 - SAM China Month-End Release 2.78.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.78</t>
+  </si>
+  <si>
+    <t>07/16 CHN Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0055416 - FO China Local Release 2.78-UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG0055417 - FO China Local Release 2.78-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Local Release 2.78.5</t>
+  </si>
+  <si>
+    <t>CHG0055418 - FO China Local Release 2.78.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0055419 - FO China Local Release 2.78.5-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.79</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DAL Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - SAM China Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - SAM China Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-CN PROD</t>
+    </r>
+  </si>
+  <si>
+    <t>SAM 2.79.5</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/31 CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - SAM China Month-End Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5-UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - SAM China Month-End Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5-PROD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FO Local Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - FO China Local Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - FO China Local Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-PROD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FO Local Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - FO China Local Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5-UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - FO China Local Release 2.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5-PROD</t>
+    </r>
+  </si>
+  <si>
+    <t>SAM 2.80</t>
+  </si>
+  <si>
+    <t>09/03 CHN Time</t>
+  </si>
+  <si>
+    <t>09/10 CHN Time</t>
+  </si>
+  <si>
+    <t>09/17 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0056646 - SAM China Release 2.80-UAT</t>
+  </si>
+  <si>
+    <t>CHG0056578 - SAM China Release 2.80-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.80.5</t>
+  </si>
+  <si>
+    <t>09/18 CHN Time</t>
+  </si>
+  <si>
+    <t>09/24 CHN Time</t>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056595</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>- SAM China Month-End Release 2.80.5-UAT</t>
+    </r>
+  </si>
+  <si>
+    <t>CHG0056600 - SAM China Month-End Release 2.80.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.80</t>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056579</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>- FO China Local Release 2.80-UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>- FO China Local Release 2.80-PROD</t>
+    </r>
+  </si>
+  <si>
+    <t>FO Local Release 2.80.5</t>
+  </si>
+  <si>
+    <r>
+      <t>CHG0056598</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>- FO China Local Release 2.80.5-UAT</t>
+    </r>
+  </si>
+  <si>
+    <t>CHG0056599 - FO China Local Release 2.80.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.81</t>
+  </si>
+  <si>
+    <t>10/09 CHN Time</t>
+  </si>
+  <si>
+    <t>10/14 CHN time</t>
+  </si>
+  <si>
+    <t>10/20 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0057268-SAM China Release 2.81-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057269-SAM China Release 2.81-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.81.5</t>
+  </si>
+  <si>
+    <t>10/21 CHN Time</t>
+  </si>
+  <si>
+    <t>10/26 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0057299-SAM China Month-End Release 2.81.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057300-SAM China Month-End Release 2.81.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.81</t>
+  </si>
+  <si>
+    <t>CHG0057296-FO China Local Release 2.81-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057298-FO China Local Release 2.81-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.81.5</t>
+  </si>
+  <si>
+    <t>CHG0057301-FO China Local Release 2.81.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057302-FO China Local Release 2.81.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.82</t>
+  </si>
+  <si>
+    <t>11/04 CHN Time</t>
+  </si>
+  <si>
+    <t>11/11 CHN Time</t>
+  </si>
+  <si>
+    <t>11/19 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0057800-SAM China Release 2.82-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057801-SAM China Release 2.82-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.82.5</t>
+  </si>
+  <si>
+    <t>CHG0057802-SAM China Month-End Release 2.82.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057803-SAM China Month-End Release 2.82.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.82</t>
+  </si>
+  <si>
+    <t>CHG0057805-FO China Local Release 2.82-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057809- FO China Local Release 2.82-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.82.5</t>
+  </si>
+  <si>
+    <t>CHG0057808-FO China Local Release 2.82.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0057810- FO China Local Release 2.82.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.83</t>
+  </si>
+  <si>
+    <t>12/03 CHN Time</t>
+  </si>
+  <si>
+    <t>12/10 CHN Time</t>
+  </si>
+  <si>
+    <t>12/17 DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0058444 - SAM China Release 2.83-UAT</t>
+  </si>
+  <si>
+    <t>CHG0058445 - SAM China Release 2.83-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.83.5</t>
+  </si>
+  <si>
+    <t>12/18 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0058446 - SAM China Month-End Release 2.83.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0058447 - SAM China Month-End Release 2.83.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.83</t>
+  </si>
+  <si>
+    <t>12/17 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0058448 - FO China Local Release 2.83-UAT</t>
+  </si>
+  <si>
+    <t>CHG0058449 - FO China Local Release 2.83-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.83.5</t>
+  </si>
+  <si>
+    <t>CHG0058450 - FO China Local Release 2.83.5-UAT</t>
+  </si>
+  <si>
+    <t>SAM 2.84</t>
+  </si>
+  <si>
+    <t>01/06 CHN Time</t>
+  </si>
+  <si>
+    <t>01/13 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0059099 - SAM China Release 2.84-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059100 - SAM China Release 2.84-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.84.5</t>
+  </si>
+  <si>
+    <t>01/21 CHN Time</t>
+  </si>
+  <si>
+    <t>01/26 CHN Time</t>
+  </si>
+  <si>
+    <t>01/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0059101 - SAM China Month-End Release 2.84.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059102 - SAM China Month-End Release 2.84.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.84</t>
+  </si>
+  <si>
+    <t>CHG0059103 - FO China Local Release 2.84-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059104 - FO China Local Release 2.84-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.84.5</t>
+  </si>
+  <si>
+    <t>CHG0059105 - FO China Local Release 2.84.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059106 -  FO China Local Release 2.84.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.85</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/03 CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <t>02/08 CHN Time</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/18 CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <t>CHG0059508 - SAM China Release 2.85-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059509 - SAM China Release 2.85-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.85.5</t>
+  </si>
+  <si>
+    <t>02/19 CHN Time</t>
+  </si>
+  <si>
+    <t>02/24 CHN Time</t>
+  </si>
+  <si>
+    <t>02/28 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0059510 - SAM China Month-End Release 2.85.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059511 - SAM China Month-End Release 2.85.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.85</t>
+  </si>
+  <si>
+    <t>CHG0059512 - FO China Local Release 2.85-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059513 - FO China Local Release 2.85-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.85.5</t>
+  </si>
+  <si>
+    <t>CHG0059514 - FO China Local Release 2.85.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0059515 -  FO China Local Release 2.85.5-PROD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/17  DAL Time </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,13 +3524,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1004,8 +3546,50 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,8 +3614,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1128,12 +3724,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1156,10 +3774,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,42 +3792,265 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1485,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,6 +4521,30 @@
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="100"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1693,18 +4564,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9A2DC-23FC-4F94-B096-15F82E3F4689}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
@@ -1724,711 +4598,4629 @@
         <v>47</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25">
+        <v>201807</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="25">
+        <v>201807</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="25">
+        <v>201807</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="25">
+        <v>201807</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="31">
+        <v>201808</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="31">
+        <v>201808</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="31">
+        <v>201808</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="31">
+        <v>201808</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="25">
+        <v>201809</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="25">
+        <v>201809</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="25">
+        <v>201809</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="25">
+        <v>201809</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="31">
+        <v>201810</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="31">
+        <v>201810</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="31">
+        <v>201810</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="31">
+        <v>201810</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="25">
+        <v>201811</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="25">
+        <v>201811</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="25">
+        <v>201811</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="25">
+        <v>201811</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="31">
+        <v>201812</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="31">
+        <v>201812</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="31">
+        <v>201812</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="31">
+        <v>201812</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="25">
+        <v>201901</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="25">
+        <v>201901</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="25">
+        <v>201901</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="25">
+        <v>201901</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="31">
+        <v>201902</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="31">
+        <v>201902</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A61" s="34"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="31">
+        <v>201902</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="31">
+        <v>201902</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A65" s="34"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="25">
+        <v>201903</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="25">
+        <v>201903</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="25">
+        <v>201903</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="25">
+        <v>201903</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="37">
+        <v>201904</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="37">
+        <v>201904</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="37">
+        <v>201904</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="37">
+        <v>201904</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="42">
+        <v>201905</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A83" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E83" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="42">
+        <v>201905</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="E84" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A85" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F85" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="37">
+        <v>201905</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A87" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="37">
+        <v>201905</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A89" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="42">
+        <v>201906</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="E90" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A91" s="46"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="42">
+        <v>201906</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A93" s="46"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="37">
+        <v>201906</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="37">
+        <v>201906</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="42">
+        <v>201907</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D98" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E98" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A99" s="46"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="42">
+        <v>201907</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="F100" s="45" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A101" s="46"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="49" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="37">
+        <v>201907</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="36" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="37">
+        <v>201907</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="42">
+        <v>201908</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A107" s="46"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="42">
+        <v>201908</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C108" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="F108" s="45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A109" s="46"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="22.5">
+      <c r="A110" s="37">
+        <v>201908</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A111" s="39"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="36" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="22.5">
+      <c r="A112" s="37">
+        <v>201908</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="42">
+        <v>201909</v>
+      </c>
+      <c r="B114" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="C114" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="F114" s="45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A115" s="46"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="42">
+        <v>201909</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="C116" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="F116" s="45" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A117" s="46"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="49" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="22.5">
+      <c r="A118" s="37">
+        <v>201909</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A119" s="39"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="22.5">
+      <c r="A120" s="37">
+        <v>201909</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="F120" s="51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A121" s="39"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="42">
+        <v>201910</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C122" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="D122" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E122" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="F122" s="44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A123" s="46"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="52" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="42">
+        <v>201910</v>
+      </c>
+      <c r="B124" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="C124" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F124" s="44" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A125" s="46"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="52" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="42">
+        <v>201910</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" s="44" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A127" s="46"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="42">
+        <v>201910</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="C128" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E128" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F128" s="44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A129" s="46"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="37">
+        <v>201911</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="F130" s="53" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A131" s="39"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="54" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="37">
+        <v>201911</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="F132" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A133" s="39"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="37">
+        <v>201911</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="F134" s="55" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A135" s="39"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="54" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="37">
+        <v>201911</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="F136" s="53" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="54" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="56">
+        <v>201912</v>
+      </c>
+      <c r="B138" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C138" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="D138" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="E138" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="F138" s="53" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A139" s="58"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="54" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A140" s="56">
+        <v>201912</v>
+      </c>
+      <c r="B140" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="C140" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="D140" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="E140" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="F140" s="53" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A141" s="58"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="54" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12" customHeight="1">
+      <c r="A142" s="56">
+        <v>201912</v>
+      </c>
+      <c r="B142" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="C142" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="D142" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="E142" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="F142" s="55" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A143" s="58"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="54" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A144" s="56">
+        <v>201912</v>
+      </c>
+      <c r="B144" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="C144" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="D144" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="E144" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="F144" s="53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A145" s="58"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="54"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="37">
+        <v>202001</v>
+      </c>
+      <c r="B146" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="C146" s="62" t="s">
+        <v>541</v>
+      </c>
+      <c r="D146" s="62" t="s">
+        <v>542</v>
+      </c>
+      <c r="E146" s="62" t="s">
+        <v>542</v>
+      </c>
+      <c r="F146" s="63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A147" s="64"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="66"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="11"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="37">
+        <v>202001</v>
+      </c>
+      <c r="B148" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="C148" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="D148" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="E148" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="F148" s="62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A149" s="64"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="22.5">
+      <c r="A150" s="37">
+        <v>202001</v>
+      </c>
+      <c r="B150" s="61" t="s">
+        <v>549</v>
+      </c>
+      <c r="C150" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="D150" s="61" t="s">
+        <v>550</v>
+      </c>
+      <c r="E150" s="61" t="s">
+        <v>551</v>
+      </c>
+      <c r="F150" s="62" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A151" s="64"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="22.5">
+      <c r="A152" s="37">
+        <v>202001</v>
+      </c>
+      <c r="B152" s="61" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152" s="61" t="s">
+        <v>544</v>
+      </c>
+      <c r="D152" s="61" t="s">
+        <v>545</v>
+      </c>
+      <c r="E152" s="61" t="s">
+        <v>546</v>
+      </c>
+      <c r="F152" s="62" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A153" s="64"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="37"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="33"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A155" s="39"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="50"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="37">
+        <v>202002</v>
+      </c>
+      <c r="B156" s="61" t="s">
+        <v>557</v>
+      </c>
+      <c r="C156" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="D156" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="E156" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="F156" s="63" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A157" s="64"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="37">
+        <v>202002</v>
+      </c>
+      <c r="B158" s="61" t="s">
+        <v>563</v>
+      </c>
+      <c r="C158" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158" s="62" t="s">
+        <v>565</v>
+      </c>
+      <c r="E158" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="F158" s="62" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A159" s="64"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="37">
+        <v>202002</v>
+      </c>
+      <c r="B160" s="61" t="s">
+        <v>569</v>
+      </c>
+      <c r="C160" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="D160" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="E160" s="62" t="s">
+        <v>570</v>
+      </c>
+      <c r="F160" s="62" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A161" s="64"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="37">
+        <v>202002</v>
+      </c>
+      <c r="B162" s="61" t="s">
+        <v>573</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="D162" s="62" t="s">
+        <v>565</v>
+      </c>
+      <c r="E162" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="F162" s="62" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A163" s="64"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="65"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="66" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="37">
+        <v>202003</v>
+      </c>
+      <c r="B164" s="61" t="s">
+        <v>576</v>
+      </c>
+      <c r="C164" s="62" t="s">
+        <v>577</v>
+      </c>
+      <c r="D164" s="62" t="s">
+        <v>578</v>
+      </c>
+      <c r="E164" s="62" t="s">
+        <v>579</v>
+      </c>
+      <c r="F164" s="63" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A165" s="64"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="37">
+        <v>202003</v>
+      </c>
+      <c r="B166" s="61" t="s">
+        <v>582</v>
+      </c>
+      <c r="C166" s="62" t="s">
+        <v>583</v>
+      </c>
+      <c r="D166" s="62" t="s">
+        <v>584</v>
+      </c>
+      <c r="E166" s="62" t="s">
+        <v>585</v>
+      </c>
+      <c r="F166" s="62" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A167" s="64"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="37">
+        <v>202003</v>
+      </c>
+      <c r="B168" s="61" t="s">
+        <v>588</v>
+      </c>
+      <c r="C168" s="62" t="s">
+        <v>577</v>
+      </c>
+      <c r="D168" s="62" t="s">
+        <v>578</v>
+      </c>
+      <c r="E168" s="62" t="s">
+        <v>589</v>
+      </c>
+      <c r="F168" s="62" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A169" s="64"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="37">
+        <v>202003</v>
+      </c>
+      <c r="B170" s="61" t="s">
+        <v>592</v>
+      </c>
+      <c r="C170" s="62" t="s">
+        <v>583</v>
+      </c>
+      <c r="D170" s="62" t="s">
+        <v>584</v>
+      </c>
+      <c r="E170" s="62" t="s">
+        <v>585</v>
+      </c>
+      <c r="F170" s="62" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A171" s="64"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="66" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="37">
+        <v>202004</v>
+      </c>
+      <c r="B172" s="61" t="s">
+        <v>595</v>
+      </c>
+      <c r="C172" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="D172" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="E172" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="F172" s="63" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A173" s="64"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="66"/>
+      <c r="E173" s="66"/>
+      <c r="F173" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="37">
+        <v>202004</v>
+      </c>
+      <c r="B174" s="61" t="s">
+        <v>601</v>
+      </c>
+      <c r="C174" s="62" t="s">
+        <v>602</v>
+      </c>
+      <c r="D174" s="62" t="s">
+        <v>603</v>
+      </c>
+      <c r="E174" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="F174" s="62" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A175" s="64"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="66"/>
+      <c r="F175" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="37">
+        <v>202004</v>
+      </c>
+      <c r="B176" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="C176" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="E176" s="62" t="s">
+        <v>608</v>
+      </c>
+      <c r="F176" s="62" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A177" s="64"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="65"/>
+      <c r="D177" s="65"/>
+      <c r="E177" s="65"/>
+      <c r="F177" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="37">
+        <v>202004</v>
+      </c>
+      <c r="B178" s="61" t="s">
+        <v>611</v>
+      </c>
+      <c r="C178" s="62" t="s">
+        <v>602</v>
+      </c>
+      <c r="D178" s="62" t="s">
+        <v>603</v>
+      </c>
+      <c r="E178" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="F178" s="62" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A179" s="64"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="65"/>
+      <c r="D179" s="65"/>
+      <c r="E179" s="65"/>
+      <c r="F179" s="66" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="37">
+        <v>202005</v>
+      </c>
+      <c r="B180" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="C180" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="D180" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E180" s="62" t="s">
+        <v>617</v>
+      </c>
+      <c r="F180" s="63" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A181" s="64"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="66"/>
+      <c r="D181" s="66"/>
+      <c r="E181" s="66"/>
+      <c r="F181" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="37">
+        <v>202005</v>
+      </c>
+      <c r="B182" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="C182" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="D182" s="62" t="s">
+        <v>622</v>
+      </c>
+      <c r="E182" s="62" t="s">
+        <v>623</v>
+      </c>
+      <c r="F182" s="62" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A183" s="64"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="66"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="37">
+        <v>202005</v>
+      </c>
+      <c r="B184" s="61" t="s">
+        <v>626</v>
+      </c>
+      <c r="C184" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="D184" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E184" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="F184" s="62" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A185" s="64"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="65"/>
+      <c r="F185" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="37">
+        <v>202005</v>
+      </c>
+      <c r="B186" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="C186" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="D186" s="62" t="s">
+        <v>622</v>
+      </c>
+      <c r="E186" s="62" t="s">
+        <v>623</v>
+      </c>
+      <c r="F186" s="62" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A187" s="64"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="65"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="65"/>
+      <c r="F187" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="22.5">
+      <c r="A188" s="67">
+        <v>202006</v>
+      </c>
+      <c r="B188" s="68" t="s">
+        <v>633</v>
+      </c>
+      <c r="C188" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="D188" s="68" t="s">
+        <v>635</v>
+      </c>
+      <c r="E188" s="68" t="s">
+        <v>636</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A189" s="69"/>
+      <c r="B189" s="70"/>
+      <c r="C189" s="70"/>
+      <c r="D189" s="70"/>
+      <c r="E189" s="70"/>
+      <c r="F189" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="22.5">
+      <c r="A190" s="67">
+        <v>202006</v>
+      </c>
+      <c r="B190" s="68" t="s">
+        <v>639</v>
+      </c>
+      <c r="C190" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="D190" s="68" t="s">
+        <v>640</v>
+      </c>
+      <c r="E190" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A191" s="69"/>
+      <c r="B191" s="70"/>
+      <c r="C191" s="70"/>
+      <c r="D191" s="70"/>
+      <c r="E191" s="70"/>
+      <c r="F191" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="22.5">
+      <c r="A192" s="67">
+        <v>202006</v>
+      </c>
+      <c r="B192" s="68" t="s">
+        <v>644</v>
+      </c>
+      <c r="C192" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="D192" s="68" t="s">
+        <v>635</v>
+      </c>
+      <c r="E192" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A193" s="69"/>
+      <c r="B193" s="70"/>
+      <c r="C193" s="70"/>
+      <c r="D193" s="70"/>
+      <c r="E193" s="70"/>
+      <c r="F193" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="22.5">
+      <c r="A194" s="67">
+        <v>202006</v>
+      </c>
+      <c r="B194" s="68" t="s">
+        <v>648</v>
+      </c>
+      <c r="C194" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="D194" s="68" t="s">
+        <v>640</v>
+      </c>
+      <c r="E194" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A195" s="71"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="22.5">
+      <c r="A196" s="73">
+        <v>202007</v>
+      </c>
+      <c r="B196" s="74" t="s">
+        <v>651</v>
+      </c>
+      <c r="C196" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="D196" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="E196" s="74" t="s">
+        <v>652</v>
+      </c>
+      <c r="F196" s="75" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A197" s="69"/>
+      <c r="B197" s="70"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
+      <c r="F197" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="22.5">
+      <c r="A198" s="67">
+        <v>202007</v>
+      </c>
+      <c r="B198" s="68" t="s">
+        <v>655</v>
+      </c>
+      <c r="C198" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="D198" s="68" t="s">
+        <v>656</v>
+      </c>
+      <c r="E198" s="68" t="s">
+        <v>657</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A199" s="69"/>
+      <c r="B199" s="70"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="70"/>
+      <c r="E199" s="70"/>
+      <c r="F199" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="22.5">
+      <c r="A200" s="67">
+        <v>202007</v>
+      </c>
+      <c r="B200" s="68" t="s">
+        <v>660</v>
+      </c>
+      <c r="C200" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="D200" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="E200" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A201" s="69"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="70"/>
+      <c r="E201" s="70"/>
+      <c r="F201" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="22.5">
+      <c r="A202" s="67">
+        <v>20200</v>
+      </c>
+      <c r="B202" s="68" t="s">
+        <v>664</v>
+      </c>
+      <c r="C202" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="D202" s="68" t="s">
+        <v>656</v>
+      </c>
+      <c r="E202" s="68" t="s">
+        <v>657</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A203" s="71"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="70"/>
+      <c r="D203" s="70"/>
+      <c r="E203" s="70"/>
+      <c r="F203" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="22.5">
+      <c r="A204" s="76">
+        <v>202008</v>
+      </c>
+      <c r="B204" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="C204" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="D204" s="61" t="s">
+        <v>669</v>
+      </c>
+      <c r="E204" s="61" t="s">
+        <v>670</v>
+      </c>
+      <c r="F204" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A205" s="77"/>
+      <c r="B205" s="78"/>
+      <c r="C205" s="78"/>
+      <c r="D205" s="78"/>
+      <c r="E205" s="78"/>
+      <c r="F205" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="22.5">
+      <c r="A206" s="79">
+        <v>202008</v>
+      </c>
+      <c r="B206" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="C206" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="D206" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="E206" s="61" t="s">
+        <v>676</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A207" s="80"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="78"/>
+      <c r="D207" s="78"/>
+      <c r="E207" s="78"/>
+      <c r="F207" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="22.5">
+      <c r="A208" s="79">
+        <v>202008</v>
+      </c>
+      <c r="B208" s="61" t="s">
+        <v>679</v>
+      </c>
+      <c r="C208" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="D208" s="61" t="s">
+        <v>669</v>
+      </c>
+      <c r="E208" s="61" t="s">
+        <v>670</v>
+      </c>
+      <c r="F208" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A209" s="81"/>
+      <c r="B209" s="78"/>
+      <c r="C209" s="78"/>
+      <c r="D209" s="78"/>
+      <c r="E209" s="78"/>
+      <c r="F209" s="11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="22.5">
+      <c r="A210" s="79">
+        <v>202008</v>
+      </c>
+      <c r="B210" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="C210" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="D210" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="E210" s="61" t="s">
+        <v>676</v>
+      </c>
+      <c r="F210" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A211" s="77"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="78"/>
+      <c r="D211" s="78"/>
+      <c r="E211" s="78"/>
+      <c r="F211" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="22.5">
+      <c r="A212" s="82">
+        <v>202009</v>
+      </c>
+      <c r="B212" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="D212" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="E212" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="F212" s="51" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A213" s="83"/>
+      <c r="B213" s="84"/>
+      <c r="C213" s="84"/>
+      <c r="D213" s="84"/>
+      <c r="E213" s="84"/>
+      <c r="F213" s="50" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="22.5">
+      <c r="A214" s="82">
+        <v>202009</v>
+      </c>
+      <c r="B214" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="C214" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D214" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="E214" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="F214" s="85" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A215" s="80"/>
+      <c r="B215" s="84"/>
+      <c r="C215" s="84"/>
+      <c r="D215" s="84"/>
+      <c r="E215" s="84"/>
+      <c r="F215" s="50" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="22.5">
+      <c r="A216" s="82">
+        <v>202009</v>
+      </c>
+      <c r="B216" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="D216" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="E216" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="F216" s="85" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A217" s="86"/>
+      <c r="B217" s="84"/>
+      <c r="C217" s="84"/>
+      <c r="D217" s="84"/>
+      <c r="E217" s="84"/>
+      <c r="F217" s="87" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="22.5">
+      <c r="A218" s="82">
+        <v>202009</v>
+      </c>
+      <c r="B218" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D218" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="E218" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="F218" s="85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A219" s="83"/>
+      <c r="B219" s="84"/>
+      <c r="C219" s="84"/>
+      <c r="D219" s="84"/>
+      <c r="E219" s="84"/>
+      <c r="F219" s="50" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="91" customFormat="1" ht="22.5">
+      <c r="A220" s="88">
+        <v>202010</v>
+      </c>
+      <c r="B220" s="89" t="s">
+        <v>702</v>
+      </c>
+      <c r="C220" s="89" t="s">
+        <v>703</v>
+      </c>
+      <c r="D220" s="89" t="s">
+        <v>704</v>
+      </c>
+      <c r="E220" s="89" t="s">
+        <v>705</v>
+      </c>
+      <c r="F220" s="90" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A221" s="92"/>
+      <c r="B221" s="93"/>
+      <c r="C221" s="93"/>
+      <c r="D221" s="93"/>
+      <c r="E221" s="93"/>
+      <c r="F221" s="94" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="91" customFormat="1" ht="22.5">
+      <c r="A222" s="88">
+        <v>202010</v>
+      </c>
+      <c r="B222" s="89" t="s">
+        <v>708</v>
+      </c>
+      <c r="C222" s="89" t="s">
+        <v>709</v>
+      </c>
+      <c r="D222" s="89" t="s">
+        <v>710</v>
+      </c>
+      <c r="E222" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="F222" s="95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A223" s="96"/>
+      <c r="B223" s="93"/>
+      <c r="C223" s="93"/>
+      <c r="D223" s="93"/>
+      <c r="E223" s="93"/>
+      <c r="F223" s="94" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="91" customFormat="1" ht="22.5">
+      <c r="A224" s="88">
+        <v>202010</v>
+      </c>
+      <c r="B224" s="89" t="s">
+        <v>713</v>
+      </c>
+      <c r="C224" s="89" t="s">
+        <v>703</v>
+      </c>
+      <c r="D224" s="89" t="s">
+        <v>704</v>
+      </c>
+      <c r="E224" s="89" t="s">
+        <v>705</v>
+      </c>
+      <c r="F224" s="95" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A225" s="92"/>
+      <c r="B225" s="93"/>
+      <c r="C225" s="93"/>
+      <c r="D225" s="93"/>
+      <c r="E225" s="93"/>
+      <c r="F225" s="97" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="91" customFormat="1" ht="22.5">
+      <c r="A226" s="88">
+        <v>202010</v>
+      </c>
+      <c r="B226" s="89" t="s">
+        <v>716</v>
+      </c>
+      <c r="C226" s="89" t="s">
+        <v>709</v>
+      </c>
+      <c r="D226" s="89" t="s">
+        <v>710</v>
+      </c>
+      <c r="E226" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="F226" s="95" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A227" s="96"/>
+      <c r="B227" s="93"/>
+      <c r="C227" s="93"/>
+      <c r="D227" s="93"/>
+      <c r="E227" s="93"/>
+      <c r="F227" s="94" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="22.5">
+      <c r="A228" s="82">
+        <v>202011</v>
+      </c>
+      <c r="B228" s="38" t="s">
+        <v>719</v>
+      </c>
+      <c r="C228" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="D228" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="E228" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="F228" s="51" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A229" s="83"/>
+      <c r="B229" s="84"/>
+      <c r="C229" s="84"/>
+      <c r="D229" s="84"/>
+      <c r="E229" s="84"/>
+      <c r="F229" s="50" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="82">
+        <v>202011</v>
+      </c>
+      <c r="B230" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="C230" s="38"/>
+      <c r="D230" s="38"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="85" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A231" s="80"/>
+      <c r="B231" s="84"/>
+      <c r="C231" s="84"/>
+      <c r="D231" s="84"/>
+      <c r="E231" s="84"/>
+      <c r="F231" s="50" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="22.5">
+      <c r="A232" s="82">
+        <v>202011</v>
+      </c>
+      <c r="B232" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="C232" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="D232" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="E232" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F232" s="85" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A233" s="86"/>
+      <c r="B233" s="84"/>
+      <c r="C233" s="84"/>
+      <c r="D233" s="84"/>
+      <c r="E233" s="84"/>
+      <c r="F233" s="87" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="82">
+        <v>202011</v>
+      </c>
+      <c r="B234" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="C234" s="38"/>
+      <c r="D234" s="38"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="85" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A235" s="83"/>
+      <c r="B235" s="84"/>
+      <c r="C235" s="84"/>
+      <c r="D235" s="84"/>
+      <c r="E235" s="84"/>
+      <c r="F235" s="50" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="98">
+        <v>202012</v>
+      </c>
+      <c r="B236" s="98" t="s">
+        <v>734</v>
+      </c>
+      <c r="C236" s="98" t="s">
+        <v>735</v>
+      </c>
+      <c r="D236" s="98" t="s">
+        <v>736</v>
+      </c>
+      <c r="E236" s="98" t="s">
+        <v>737</v>
+      </c>
+      <c r="F236" s="98" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A237" s="99"/>
+      <c r="B237" s="99"/>
+      <c r="C237" s="99"/>
+      <c r="D237" s="99"/>
+      <c r="E237" s="99"/>
+      <c r="F237" s="99" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="98">
+        <v>202012</v>
+      </c>
+      <c r="B238" s="98" t="s">
+        <v>740</v>
+      </c>
+      <c r="C238" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="D238" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="E238" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="F238" s="98" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A239" s="99"/>
+      <c r="B239" s="99"/>
+      <c r="C239" s="99"/>
+      <c r="D239" s="99"/>
+      <c r="E239" s="99"/>
+      <c r="F239" s="99" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="98">
+        <v>202012</v>
+      </c>
+      <c r="B240" s="98" t="s">
+        <v>744</v>
+      </c>
+      <c r="C240" s="98" t="s">
+        <v>735</v>
+      </c>
+      <c r="D240" s="98" t="s">
+        <v>736</v>
+      </c>
+      <c r="E240" s="98" t="s">
+        <v>745</v>
+      </c>
+      <c r="F240" s="98" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A241" s="99"/>
+      <c r="B241" s="99"/>
+      <c r="C241" s="99"/>
+      <c r="D241" s="99"/>
+      <c r="E241" s="99"/>
+      <c r="F241" s="99" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="98">
+        <v>202012</v>
+      </c>
+      <c r="B242" s="98" t="s">
+        <v>748</v>
+      </c>
+      <c r="C242" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="D242" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="E242" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="F242" s="98" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A243" s="99"/>
+      <c r="B243" s="99"/>
+      <c r="C243" s="99"/>
+      <c r="D243" s="99"/>
+      <c r="E243" s="99"/>
+      <c r="F243" s="99"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="16">
+        <v>202101</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C244" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="E244" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A245" s="17"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="16">
+        <v>202101</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="C246" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="D246" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="E246" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A247" s="17"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="16">
+        <v>202101</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C248" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="E248" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A249" s="17"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="16">
+        <v>202101</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="E250" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A251" s="17"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15" customHeight="1">
+      <c r="A252" s="20">
+        <v>202102</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="D252" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="E252" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A253" s="21"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15" customHeight="1">
+      <c r="A254" s="20">
+        <v>202102</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D254" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="E254" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A255" s="21"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15" customHeight="1">
+      <c r="A256" s="20">
+        <v>202102</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A257" s="21"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="23"/>
+      <c r="F257" s="13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A258" s="20">
+        <v>202102</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A259" s="21"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="16">
+        <v>202103</v>
+      </c>
+      <c r="B260" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14">
+      <c r="C260" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D260" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E260" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A261" s="17"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="16">
         <v>202103</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B262" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C262" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D262" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E262" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A263" s="17"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="16">
+        <v>202103</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C264" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D264" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E264" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14">
+      <c r="F264" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A265" s="17"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="16">
         <v>202103</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B266" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D266" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E266" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14">
-        <v>202103</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>202103</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="F266" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="8" t="s">
+    </row>
+    <row r="267" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A267" s="17"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="9" t="s">
+    <row r="268" spans="1:6">
+      <c r="A268" s="20">
+        <v>202104</v>
+      </c>
+      <c r="B268" s="22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="18">
+      <c r="C268" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E268" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F268" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A269" s="21"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="23"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15" customHeight="1">
+      <c r="A270" s="20">
         <v>202104</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B270" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E270" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F270" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A271" s="21"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="20">
+        <v>202104</v>
+      </c>
+      <c r="B272" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C272" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D272" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E272" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="18">
+      <c r="F272" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A273" s="21"/>
+      <c r="B273" s="23"/>
+      <c r="C273" s="23"/>
+      <c r="D273" s="23"/>
+      <c r="E273" s="23"/>
+      <c r="F273" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15" customHeight="1">
+      <c r="A274" s="20">
         <v>202104</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B274" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C274" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D274" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E274" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="18">
-        <v>202104</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18">
-        <v>202104</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="F274" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12" t="s">
+    </row>
+    <row r="275" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A275" s="21"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="23"/>
+      <c r="F275" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="11" t="s">
+    <row r="276" spans="1:6" ht="15" customHeight="1">
+      <c r="A276" s="16">
+        <v>202105</v>
+      </c>
+      <c r="B276" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14">
+      <c r="C276" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E276" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A277" s="17"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15" customHeight="1">
+      <c r="A278" s="16">
         <v>202105</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B278" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C278" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E278" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A279" s="17"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15" customHeight="1">
+      <c r="A280" s="16">
+        <v>202105</v>
+      </c>
+      <c r="B280" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C280" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D280" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E280" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="14">
+      <c r="F280" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A281" s="17"/>
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="19"/>
+      <c r="E281" s="19"/>
+      <c r="F281" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15" customHeight="1">
+      <c r="A282" s="16">
         <v>202105</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B282" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C282" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D282" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E282" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="14">
-        <v>202105</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="14">
-        <v>202105</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="F282" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="8" t="s">
+    </row>
+    <row r="283" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A283" s="17"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="19"/>
+      <c r="E283" s="19"/>
+      <c r="F283" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="9" t="s">
+    <row r="284" spans="1:6" ht="15" customHeight="1">
+      <c r="A284" s="20">
+        <v>202106</v>
+      </c>
+      <c r="B284" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18">
+      <c r="C284" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E284" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="F284" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A285" s="21"/>
+      <c r="B285" s="23"/>
+      <c r="C285" s="23"/>
+      <c r="D285" s="23"/>
+      <c r="E285" s="23"/>
+      <c r="F285" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15" customHeight="1">
+      <c r="A286" s="20">
         <v>202106</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B286" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="D286" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E286" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F286" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A287" s="21"/>
+      <c r="B287" s="23"/>
+      <c r="C287" s="23"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="23"/>
+      <c r="F287" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15" customHeight="1">
+      <c r="A288" s="20">
+        <v>202106</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C288" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D288" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="11" t="s">
+      <c r="E288" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A289" s="21"/>
+      <c r="B289" s="23"/>
+      <c r="C289" s="23"/>
+      <c r="D289" s="23"/>
+      <c r="E289" s="23"/>
+      <c r="F289" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15" customHeight="1">
+      <c r="A290" s="20">
+        <v>202106</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="D290" s="22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18">
-        <v>202106</v>
-      </c>
-      <c r="B28" s="20" t="s">
+      <c r="E290" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="18">
-        <v>202106</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="F290" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="13" t="s">
+    <row r="291" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A291" s="21"/>
+      <c r="B291" s="23"/>
+      <c r="C291" s="23"/>
+      <c r="D291" s="23"/>
+      <c r="E291" s="23"/>
+      <c r="F291" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="18">
-        <v>202106</v>
-      </c>
-      <c r="B32" s="20" t="s">
+    <row r="292" spans="1:6" customFormat="1">
+      <c r="A292" s="16">
+        <v>202107</v>
+      </c>
+      <c r="B292" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="C292" s="18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="11" t="s">
+      <c r="D292" s="18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="14">
+      <c r="E292" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F292" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A293" s="17"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="19"/>
+      <c r="E293" s="19"/>
+      <c r="F293" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" customFormat="1">
+      <c r="A294" s="16">
         <v>202107</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B294" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E294" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A295" s="17"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" customFormat="1">
+      <c r="A296" s="16">
+        <v>202107</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E296" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="F296" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A297" s="17"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="19"/>
+      <c r="E297" s="19"/>
+      <c r="F297" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" customFormat="1">
+      <c r="A298" s="16">
+        <v>202107</v>
+      </c>
+      <c r="B298" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C298" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="9" t="s">
+      <c r="D298" s="18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="14">
-        <v>202107</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="E298" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="A38" s="14">
-        <v>202107</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="F298" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="9" t="s">
+    <row r="299" spans="1:6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A299" s="17"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="19"/>
+      <c r="D299" s="19"/>
+      <c r="E299" s="19"/>
+      <c r="F299" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="A40" s="14">
-        <v>202107</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
+  <mergeCells count="140">
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="D296:D297"/>
+    <mergeCell ref="E296:E297"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="D294:D295"/>
+    <mergeCell ref="E294:E295"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="D290:D291"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="D288:D289"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="E286:E287"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="D284:D285"/>
+    <mergeCell ref="E284:E285"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="D276:D277"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="E244:E245"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,16 +9245,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2470,13 +9262,13 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2484,13 +9276,13 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2498,13 +9290,13 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2512,13 +9304,13 @@
         <v>220</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2526,13 +9318,13 @@
         <v>230</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2540,13 +9332,13 @@
         <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2554,13 +9346,13 @@
         <v>250</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2568,13 +9360,13 @@
         <v>260</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2582,13 +9374,13 @@
         <v>300</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2596,13 +9388,13 @@
         <v>420</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2610,13 +9402,13 @@
         <v>430</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2">
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,13 +9416,13 @@
         <v>440</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2">
         <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2638,13 +9430,13 @@
         <v>450</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2">
         <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2652,13 +9444,13 @@
         <v>460</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2">
         <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2666,13 +9458,13 @@
         <v>500</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2">
         <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2680,13 +9472,13 @@
         <v>620</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2">
         <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2694,13 +9486,13 @@
         <v>630</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2">
         <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2708,13 +9500,13 @@
         <v>640</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2">
         <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2722,11 +9514,11 @@
         <v>720</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2734,11 +9526,11 @@
         <v>730</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2746,11 +9538,11 @@
         <v>740</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2758,13 +9550,13 @@
         <v>820</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2">
         <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2772,13 +9564,13 @@
         <v>830</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2">
         <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2786,13 +9578,13 @@
         <v>840</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2">
         <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2800,13 +9592,13 @@
         <v>850</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2">
         <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +9611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9756503D-9072-4AB6-A8AB-87CAE78CE02A}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -2829,53 +9621,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
-        <v>176</v>
+      <c r="A1" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="23" t="s">
-        <v>177</v>
+      <c r="A2" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
